--- a/Metropolitan Roads/31659/res_ITP-151-STR-SSB-Shotcrete Rev 0.xlsx
+++ b/Metropolitan Roads/31659/res_ITP-151-STR-SSB-Shotcrete Rev 0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\31659\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E5D05-9F89-47E6-AE42-03F4BD63F7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2AF0F8-7F22-45D8-9BF3-B5CF30AA536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="945" windowWidth="29070" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8070" yWindow="1005" windowWidth="29070" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$669</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="296">
   <si>
     <t>type</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Final Inspection</t>
   </si>
   <si>
-    <t>On behalf of Metropolitan Roads Program Alliance, it is hereby certified that the Works represented by the item of work listed have been tested in accordance with the Project Quality Plan and conform in all respects with the requirements of the Contract.</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -119,12 +116,6 @@
     <t>Revision Number: 0</t>
   </si>
   <si>
-    <t>Revision Date: 1/05/2024</t>
-  </si>
-  <si>
-    <t>ITP approved for use by: Victor Mira</t>
-  </si>
-  <si>
     <t>Preliminaries - Materials</t>
   </si>
   <si>
@@ -134,43 +125,805 @@
     <t>1.4 Non Dependent</t>
   </si>
   <si>
-    <t>ITP Description: SSB-Precast Super T Installaton</t>
-  </si>
-  <si>
-    <t>Discipline (e.g. CIV/STR/RAIL): 154-STR</t>
-  </si>
-  <si>
-    <t>ITP created by: Dan O'Brien</t>
-  </si>
-  <si>
-    <t>Document Title: ITP-154-STR-SSB-Precast Super T Installation</t>
-  </si>
-  <si>
-    <t>3.1 Precast Elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPTANCE CRITERIA: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHOD: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQUENCY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBILITY: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFYING DOCUMENTS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference: </t>
+    <t>ITP-151-STR-SSB-Shotcrete Rev 0</t>
+  </si>
+  <si>
+    <t>ITP-151-STR-SSB-Shotcrete</t>
+  </si>
+  <si>
+    <t>0f0cb2af-52dd-46db-8956-16f038533a20</t>
+  </si>
+  <si>
+    <t>Reference: VicRoads Section 610 June 2019</t>
+  </si>
+  <si>
+    <t>Reference: VicRoads Section 611 November 2018</t>
+  </si>
+  <si>
+    <t>Reference: VicRoads Section 684 April 2019</t>
+  </si>
+  <si>
+    <t>Reference: AS3810.1 2018</t>
+  </si>
+  <si>
+    <t>Document Title: ITP-151-STR-Shotcrete-SSB</t>
+  </si>
+  <si>
+    <t>ITP Description: Shotcrete-SSB</t>
+  </si>
+  <si>
+    <t>Discipline (e.g. CIV/STR/RAIL): 151-STR</t>
+  </si>
+  <si>
+    <t>Revision Date: 19/04/2024</t>
+  </si>
+  <si>
+    <t>ITP created by: Mike Freeman</t>
+  </si>
+  <si>
+    <t>ITP approved for use by: Mike Freeman</t>
+  </si>
+  <si>
+    <t>On behalf of Metropolitan Roads Program Alliance, it is hereby certified that the Works represented by the item of work listed above have been tested in accordance with the Project Quality Plan and conform in all respects with the requirements of the Contract.</t>
+  </si>
+  <si>
+    <t>2.1 Concrete Mix</t>
+  </si>
+  <si>
+    <t>METHOD: Document Review</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, for each mix design, 4 weeks prior to placement of concrete</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Nominated Authority</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: ConQA Hold Point Release</t>
+  </si>
+  <si>
+    <t>2.2 ACRS Certification (for Reinforcement)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once for each supplier, 14 days of award of contract</t>
+  </si>
+  <si>
+    <t>CATEGORY: WP</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP</t>
+  </si>
+  <si>
+    <t>2.3 Galvanising (for Reinforcement)</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.04 (c)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: For each reinforcement delivery from each galvaniser</t>
+  </si>
+  <si>
+    <t>2.4 Bar Chairs/Aspros Certification</t>
+  </si>
+  <si>
+    <t>REFERENCE: 610.26 (a)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once for each supplier, 14 days prior to placement of reinforcement</t>
+  </si>
+  <si>
+    <t>2.5 Evaporative Retardant</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, for each product, 4 weeks prior to placement of concrete</t>
+  </si>
+  <si>
+    <t>2.6 Curing Compound</t>
+  </si>
+  <si>
+    <t>3.1 Shotcrete Work Method Statement</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, 4 weeks prior to placement of concrete</t>
+  </si>
+  <si>
+    <t>3.2 Contractor Competency</t>
+  </si>
+  <si>
+    <t>3.3 Test Panels</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, 4 weeks prior to placement of concrete, for each combination of personnel, concrete mix and equipment</t>
+  </si>
+  <si>
+    <t>3.4 Concrete Sampling and Testing Procedure</t>
+  </si>
+  <si>
+    <t>3.5 Shotcrete Prequalification Toolbox Meeting</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.07 (d) (ii)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, prior to placement of concrete</t>
+  </si>
+  <si>
+    <t>3.6 Hot and/or Cold Weather Concreting Procedure</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, 2 weeks prior to placement of concrete</t>
+  </si>
+  <si>
+    <t>3.7 Curing Methodology (for Concrete and Grout)</t>
+  </si>
+  <si>
+    <t>4.1 IFC Drawings</t>
+  </si>
+  <si>
+    <t>REFERENCE: MRPA Quality Management Plan</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Check the revision of the IFC drawings are current as per the drawing register (on Teambinder)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to starting Works and at regular intervals</t>
+  </si>
+  <si>
+    <t>CATEGORY: HP*</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: All</t>
+  </si>
+  <si>
+    <t>4.2 Substrate Preparation</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each lot</t>
+  </si>
+  <si>
+    <t>CATEGORY: IP</t>
+  </si>
+  <si>
+    <t>4.3 Subsurface Drainage</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, each lot</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, at each existing structural element</t>
+  </si>
+  <si>
+    <t>5.1 Reinforcement Placement</t>
+  </si>
+  <si>
+    <t>5.2 Cast-in Items</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, each element</t>
+  </si>
+  <si>
+    <t>5.3 Pre-pour Inspection</t>
+  </si>
+  <si>
+    <t>5.5 Concrete Testing - Sampling Frequency</t>
+  </si>
+  <si>
+    <t>METHOD: Test</t>
+  </si>
+  <si>
+    <t>5.6 Concrete Testing - Slump</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each sample of Standard or Superplasticised Concrete</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Concrete Tester</t>
+  </si>
+  <si>
+    <t>5.7 Concrete Testing - Compressive Strength Cylinders</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each sample</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each load</t>
+  </si>
+  <si>
+    <t>5.9 Application Process</t>
+  </si>
+  <si>
+    <t>METHOD: Visual</t>
+  </si>
+  <si>
+    <t>CATEGORY: SP</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS:</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each element</t>
+  </si>
+  <si>
+    <t>5.11 Curing</t>
+  </si>
+  <si>
+    <t>6.1 Concrete Testing - Core Sample Frequency</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each cylinder and core sample</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>6.3 Surface Inspection</t>
+  </si>
+  <si>
+    <t>VERIFYING DOCUMENTS: This ITP and/or Structural Concrete Crack Repair ITP</t>
+  </si>
+  <si>
+    <t>6.4 Fibre Wash-out Test Results</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.08 (c)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Where applicable, each test</t>
+  </si>
+  <si>
+    <t>6.5 As-built Survey</t>
+  </si>
+  <si>
+    <t>6.6 Non-conformance Report (NCR) Closure</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed in Teambinder.</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, prior to closure of this lot / element / Work area</t>
+  </si>
+  <si>
+    <t>5.10 Surface Finishes</t>
+  </si>
+  <si>
+    <t>4.4 Waterstop Seals, Compressible Seals &amp; Isolation Joints</t>
+  </si>
+  <si>
+    <t>5.4 Weather Conditions &amp; Evaporation Limits</t>
+  </si>
+  <si>
+    <t>REFERENCE: Site Sampling &amp; Testing Procedure</t>
+  </si>
+  <si>
+    <t>5.8 Supply &amp; Discharge Rates</t>
+  </si>
+  <si>
+    <t>6.2 Compressive Strength &amp; VPV Test Results</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.04 (a), 684.04 (d) (i &amp; ii), 684.05 (a) (i &amp; ii) Table 684.051, 684.05 (b) Table 684.052, 610.07 Table 610.071</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete Mix is Registered with VicRoads.</t>
+  </si>
+  <si>
+    <t>Where applicable, steel fibres shall:</t>
+  </si>
+  <si>
+    <t>Enter: Teambinder Material Approval number</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>○ Concrete mix meets strength, grade, and maximum aggregate size as detailed on drawings.</t>
+  </si>
+  <si>
+    <t>○ Maximum drying shrinkage shall meet the values shown on table 684.052.</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.04 (c), 611.05 (a)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Current ACRS certification for materials and for bar processing.</t>
+  </si>
+  <si>
+    <t>Note: ACRS certificate may cover both aspects or be for each separate portion (e.g 1 for the material supplier and another for the bar processor (bending, cropping and delivery)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All reinforcement and tie wire used in the Works shall be hot-dipped galvanised in accordance with AS4680.</t>
+  </si>
+  <si>
+    <t>Attach: Galvaniser's Certificate of Compliance</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Plastic bar chairs, wheels, and spacers require bi-annual testing to demonstrate suitability to prevent excessive deformation under loads.</t>
+  </si>
+  <si>
+    <t>○ Concrete aspros require annual compressive strength and soluble salt testing is required.</t>
+  </si>
+  <si>
+    <t>○ Relevant test reports demonstrating compliance to this clause shall be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.10 (b), 684.11, 610.17 (f)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Details of evaporative retardant, application procedure (including application rates) to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.12, 610.23 (d)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Details of curing compound and NATA test certificate stating compliance with AS3799 no more than 3 years from issue, to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.07 (a), 684.07 (d) (i), 684.07 (d)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Shotcrete WMS, detailing the proposed equipment and preparation works, to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>Enter: Teambinder Approval number</t>
+  </si>
+  <si>
+    <t>○ Any changes to the approved WMS shall be deemed a new Hold Point.</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.06, 684.07 (a), 684.07 (d)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Personnel undertaking the shotcrete works, including the nozzle operator, supervisor and finisher, shall have a minimum of 5 years experience in shotcrete application.</t>
+  </si>
+  <si>
+    <t>○ Any changes to personnel shall be deemed a new Hold Point.</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.07 (b - d), 684.07 (d) (i), 684.10 (a)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: For each combination of nozzle operator, concrete mix and spraying equipment, 2 no. test panels (750mm x 750mm x the maximum design thickness or 150mm min.), shall be cast.</t>
+  </si>
+  <si>
+    <t>Core samples shall be tested for:</t>
+  </si>
+  <si>
+    <t>Enter: Teambinder Approval Number</t>
+  </si>
+  <si>
+    <t>– The panels shall be cast using the same reinforcement design and in the same orientation as the Works - panels shall not be cast horizontally on the ground.</t>
+  </si>
+  <si>
+    <t>– For each test panel, 8 no. core samples shall be taken, perpendicular to the surface, no closer than 125mm from the edge and after 48 hours minimum.</t>
+  </si>
+  <si>
+    <t>– Any changes to approved test panel combinations is deemed a new Hold Point.</t>
+  </si>
+  <si>
+    <t>– Where existing test results for the same combinations exist, this is considered to be a pre-qualification and new test panels are not required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 1 no. 3 day compressive strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 1 no. 7 day compressive strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 2 no. 28 day compressive strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 2 no. VPV tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 2 no. visual inspection showing reinforcement encasement in concrete</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.08 (a), 610.18 (a) (v)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete sampling and testing procedure to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Shotcrete prequalification toolbox meeting held to discuss the quality requirements.</t>
+  </si>
+  <si>
+    <t>○ Minutes of this meeting to be submitted to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.10 (b), 610.17 (a)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Hot and/or cold weather concreting procedure to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.12, 610.23 (a)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Curing methodology/procedure to be submitted for review to the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings, Shotcrete WMS, 684.09 (a - c)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Substrate shall be formed to the correct line and grade to provide adequate thickness for the works and shaped (or repaired - for concrete) to prevent any abrupt changes in thickness of the shotcrete.</t>
+  </si>
+  <si>
+    <t>○ Smooth concrete substrates shall be roughened to create a construction joint.</t>
+  </si>
+  <si>
+    <t>○ Any loose materials, oils, grease and coatings of any description shall be removed.</t>
+  </si>
+  <si>
+    <t>METHOD: Measure, Visual</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Foreman, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 684.09 (a), 702.03, 702.06, 702.07, 702.09 (f)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Subsurface drains shall be the type nominated on the IFC drawings - any changes must be approved by the designers if no equivalent exists.</t>
+  </si>
+  <si>
+    <t>○ The drainage shall be wrapped in geotextile, full height of the structure and located as shown on the IFC drawings against the substrate to prevent encasement in concrete.</t>
+  </si>
+  <si>
+    <t>○ Joints in the drainage shall be over-lapped 450mm min. by the geotextile.</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings, Product TDS</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Waterstop seals, compressible seals and isolation joints shall be the system(s) nominated on the IFC drawings - any changes must be approved by the designers if no approved equivalent exists.</t>
+  </si>
+  <si>
+    <t>○ Seals and isolation joints must be full height of the structural element(s) and located as per the IFC drawings.</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 684.04 (c), 684.09 (c), 611.06, 611.09, 611.10, 611.11, 611.12</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The correct reinforcement grade, quantity, size, orientation, location and spacing as shown on the structural drawings.</t>
+  </si>
+  <si>
+    <t>○ Tie wire is to match the reinforcement it is securing, with contact between dissimilar metals isolated with zinc-rich spray paint, electrical tape or have a minimum gap of 10mm.</t>
+  </si>
+  <si>
+    <t>○ Layers are spaced apart using bent reinforcement, not bar chairs.</t>
+  </si>
+  <si>
+    <t>○ Projecting reinforcement is the correct length and location.</t>
+  </si>
+  <si>
+    <t>○ Splice lengths achieve the minimum length and are in contact for this length.</t>
+  </si>
+  <si>
+    <t>○ The reinforcement surface condition is free from dirt, debris and damage.</t>
+  </si>
+  <si>
+    <t>○ The resulting cage securely held with sufficient ties to limit displacement or deformation during the shotcrete application.</t>
+  </si>
+  <si>
+    <t>○ Minimum cover as shown on the structural drawings for each face has been achieved (including tie wire locations).</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 610.47 (a) Table 610.472, AS3810.1 Table 3.3.6.2</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All cast-in items are the correct type, grade, quantity, size, orientation and location as shown on the structural drawings and are securely fastened or restrained to withstand impact and pressure during the concreting operations to prevent dislodgement.</t>
+  </si>
+  <si>
+    <t>Placement tolerances to comply with the IFC drawings, if not specified, use the following:</t>
+  </si>
+  <si>
+    <t>○ Any exposed threads, conduits, ducts or voids shall be protected by suitable means to prevent concrete or grout ingress.</t>
+  </si>
+  <si>
+    <t>○ Tack welding of any cast-in items shall be performed by someone pre-qualified to do so.</t>
+  </si>
+  <si>
+    <t>○ Grout tubes shall be fastened at regular intervals to prevent kinking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iii. Ducts and conduit location = ±12mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iv. Diameter of ducts and conduits = ±3mm</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Once, 4 weeks prior to commencement of works and for any personnel changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ii. Running dimensions of a group of the above = ±6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i. Bolts, ferrules, projecting bars &amp; couplers = ±3mm</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings, Bonded Anchors ITP 684.10 (b)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All preparation works on the substrate have been completed and the surface moistened without free-standing water to prevent premature drying of the shotcrete.</t>
+  </si>
+  <si>
+    <t>○ Evidence that the reinforcement and embedments are conforming to the requirements of the specifications and the IFC drawings.</t>
+  </si>
+  <si>
+    <t>REFERENCE: Hot and/or Cold Weather Concreting Procedure 684.10 (b), 610.17, 610.17 (a) &amp; (e) Table 610.171</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All freshly finished concrete surfaces shall be protected where required from the sun, wind or rain, until curing is implemented.</t>
+  </si>
+  <si>
+    <t>Record: Required information on the Concrete Pour Record.</t>
+  </si>
+  <si>
+    <t>○ The temperature of concrete, measured immediately prior to placing, shall not be less than 10°C or greater than 32°C.</t>
+  </si>
+  <si>
+    <t>○ The air temperature, relative humidity, concrete temperature and wind velocity are measured to determine the evaporation rate of water from the concrete.</t>
+  </si>
+  <si>
+    <t>○ When the evaporation rate exceeds 0.50 kg/m²/hr apply evaporation retardant at the rates specified on the manufacturer’s TDS.</t>
+  </si>
+  <si>
+    <t>REFERENCE: Site Sampling &amp; Testing Procedure 684.08 (a), RC 377.01, 610.16 (b)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete cast in one continuous operation to be tested at a frequency as shown below:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 0m³ to 10m³ = 1 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 10m³ to 25m³ = 2 samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 25m³ to 50m³ = 3 samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 50m³ to 100m³ = 4 samples + 2 no. VPV cylinders.</t>
+  </si>
+  <si>
+    <t>– For each additional 50m³ and additional sample shall be taken.</t>
+  </si>
+  <si>
+    <t>– Each sample shall consist of 1 no. slump or spread test and 3 no. compressive strength cylinders minimum.</t>
+  </si>
+  <si>
+    <t>– Compressive strength cylinders = 1 no. 7 day strength, 2 no. 28 day strength.</t>
+  </si>
+  <si>
+    <t>– Where applicable, fibre dosage rates are to be tested at a frequency of 1 in every 5 truck loads.</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Concrete Tester, Foreman, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.08 (a), 610.16 (c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Slump testing tolerances = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ &lt;60mm = ±10mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ ≥60mm to ≤80mm = ±15mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ &gt;80mm to ≤110mm = ±20mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ &gt;110mm to ≤150mm = ±30mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ &gt;150mm = ±40mm</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Correct quantity of cylinders manufactured per sample.</t>
+  </si>
+  <si>
+    <t>REFERENCE: 684.05 (c), 610.13 (a) &amp; (f)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete is supplied at an adequate rate to ensure no cold joints are formed.</t>
+  </si>
+  <si>
+    <t>○ No water is to be added once discharge commences.</t>
+  </si>
+  <si>
+    <t>○ Maximum time between batching trucks is 25 minutes.</t>
+  </si>
+  <si>
+    <t>○ Maximum elapsed time for discharge (including compaction) is 60 minutes from batching unless the mix design has an extension using set retardants.</t>
+  </si>
+  <si>
+    <t>○ Concrete that stiffens or is showing signs of stiffening shall not be used.</t>
+  </si>
+  <si>
+    <t>REFERENCE: Shotcrete Work Method Statement 684.10 (b), 684.13, 610.18 (a) &amp; (b)</t>
+  </si>
+  <si>
+    <t>Attach: Concrete Pour Record</t>
+  </si>
+  <si>
+    <t>Attach: Concrete Dockets</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All concrete batches are traceable.</t>
+  </si>
+  <si>
+    <t>○ Where concrete pumps are used, the initial discharge is pumped to waste until a consistent workable mix is discharged.</t>
+  </si>
+  <si>
+    <t>○ Probes or non-corrosive thickness indicators shall be used during the application to determine the actual application thickness.</t>
+  </si>
+  <si>
+    <t>○ The spray nozzle shall be held to ensure placement of concrete behind and around all steel reinforcement.</t>
+  </si>
+  <si>
+    <t>○ For vertical surfaces, application shall commence at the bottom and overhead surfaces shall be applied from the shoulder to the crown.</t>
+  </si>
+  <si>
+    <t>○ Each layer of the sprayed concrete shall be built up by making several passes over the working area with a maximum layer thickness of 150mm.</t>
+  </si>
+  <si>
+    <t>○ Concrete shall not be sprayed through more than one layer of reinforcement in one application.</t>
+  </si>
+  <si>
+    <t>○ Where a layer of sprayed concrete is to be covered by succeeding layers, it shall be allowed to set prior to application of the succeeding layer without the need for curing compounds.</t>
+  </si>
+  <si>
+    <t>○ The surface shall be checked for soundness, segregated, loose or otherwise uncompacted sprayed concrete removed, repaired as specified, cleaned, and wetted using a blast of air and water, leaving a dense, homogenous monolithic layer.</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 684.11, 684.14, 610.31, 610.20</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Surface finish as per IFC drawings.</t>
+  </si>
+  <si>
+    <t>○ Where surface finish is not detailed, structural concrete retaining walls, soil nail walls, tunnel linings, CP Overlay and other structural components forming part of permanent Works shall have a class 2 finish to reduce the chance of cracking.</t>
+  </si>
+  <si>
+    <t>○ Construction joints shall be roughened in locations shown on the drawings - any proposed changes to construction joints shall be subject to approval from the Nominated Authority.</t>
+  </si>
+  <si>
+    <t>REFERENCE: Curing Methodology 684.10 (b), 610.23 Table 610.231</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Curing to commence immediately after finishing operations and continue for the duration specified in table 610.231.</t>
+  </si>
+  <si>
+    <t>○ Curing methodology to be in accordance with the approved procedure and manufacturer's TDS.</t>
+  </si>
+  <si>
+    <t>REFERENCE: Site Sampling &amp; Testing Procedure 684.04 (d) Table 684.041, 610.16 (b)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 75mmØ core samples shall be taken after avoiding reinforcement, from each day's production for each lot at a frequency as shown below:</t>
+  </si>
+  <si>
+    <t>Note: MRPA has D.o.T acceptance to remove the 3 day core and take core samples on test panels in lieu of completed Works</t>
+  </si>
+  <si>
+    <t>See:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 0m³ to 25m³ = 1 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 25m³ to 50m³ = 2 samples</t>
+  </si>
+  <si>
+    <t>– For each additional 50m³ an additional sample shall be taken.</t>
+  </si>
+  <si>
+    <t>– Each sample shall consist of 5 no. core samples, taken perpendicular to the surface, no closer than 200mm from the edge and after 48 hours minimum.</t>
+  </si>
+  <si>
+    <t>○ MRP-MRPA-GNC-XCN-0096</t>
+  </si>
+  <si>
+    <t>○ E-mail from D.o.T 7.06.2021</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 684.08 (e) (i - iii) Table 610.051, Table 610.061, 610.16 (g)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: 3 &amp; 7 day compressive strengths (cylinders and core samples) to comply with table 610.051 for early indication that the strength is tracking correctly.</t>
+  </si>
+  <si>
+    <t>Note: 1 of the 2 no. 28 day cylinders per sample may be as low as 90% of the required strength, so long as the average meets the required strength.</t>
+  </si>
+  <si>
+    <t>Note: The average of the 2 no. 28 day cores per sample may be as low as 85% of the required strength, as long as the difference between each core, does not exceed 20%.</t>
+  </si>
+  <si>
+    <t>Attach: Compressive Strength Test Results</t>
+  </si>
+  <si>
+    <t>Attach: Core Sample Compressive Strength Test Results</t>
+  </si>
+  <si>
+    <t>○ 28 day compressive strength (average of the 2 no. cylinders) per sample comply with the design strength and VPV results comply with table 610.061.</t>
+  </si>
+  <si>
+    <t>○ Visual inspection of all cores confirm that the minimum thickness of no less than 85% x thickness, and there are no signs of defects.</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 684.08 (b), 684.15, 684.16, 610.31 (a) - (n), 610.32, 610.24</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Surface to be as per the required class of finish with no visible lack of compaction, dry patches, voids or sand pockets.</t>
+  </si>
+  <si>
+    <t>○ Soundness inspection shall be conducted with a small hammer to locate ‘drummy’ or ‘hollow’ response areas which indicate a possible lack of bond, delamination or other defect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ For core sample penetrations and if any visual defects are observed, follow Structural Concrete Cementitious Patch Repair ITP for investigation and repair. </t>
+  </si>
+  <si>
+    <t>○ No cracks greater than 0.2mm (exposure classification B1)</t>
+  </si>
+  <si>
+    <t>○ If cracking is observed, complete the Structural Concrete Crack Repair ITP for investigation and repair.</t>
+  </si>
+  <si>
+    <t>METHOD: Visual, Measure</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Fibre wash-out test results shall be within 1% of the concrete mix design fibre dosage rate.</t>
+  </si>
+  <si>
+    <t>Attach: Fibre Wash-out Test Results</t>
+  </si>
+  <si>
+    <t>REFERENCE: IFC Drawings 684.13, 610.47 Table 610.472</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Provide record of dimensional measurements to demonstrate concrete members comply with tolerances as per the table 610.462 as applicable to the element.</t>
+  </si>
+  <si>
+    <t>Attach: Survey As-builts / Survey Report</t>
+  </si>
+  <si>
+    <t>○ Where a shape is required, ±25mm with no depressions greater than 15mm.</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Surveyor, SE/PE/SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i. be deformed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ii. have a minimum tensile strength of 800MPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iii. have an aspect ratio between 40 and 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iv. have a minimum dosage rate as per table 684.051 </t>
+  </si>
+  <si>
+    <t>Post-construction Activities</t>
+  </si>
+  <si>
+    <t>Construction Activities</t>
+  </si>
+  <si>
+    <t>Pre-construction Activities</t>
+  </si>
+  <si>
+    <t>Preliminaries - Procedures &amp; Documentation</t>
   </si>
 </sst>
 </file>
@@ -322,7 +1075,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +1291,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -699,7 +1464,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -724,6 +1489,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1080,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1089,10 +1863,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="246.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="252.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="66.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1124,22 +1898,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1147,7 +1927,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
@@ -1158,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1166,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1182,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1190,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1198,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1206,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1214,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1222,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1238,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1246,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,23 +2050,23 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
+      <c r="A20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,71 +2090,71 @@
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
+      <c r="B25" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
+      <c r="B26" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
+      <c r="B27" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
+      <c r="B28" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
+      <c r="B29" s="8" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
+      <c r="B30" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
+      <c r="B31" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>126</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,67 +2170,5091 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
+      <c r="A244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B258" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B456" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B492" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B496" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B498" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B500" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B502" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B511" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B516" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B518" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B520" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B528" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B532" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B535" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B536" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B548" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B550" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B552" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B553" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B554" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B555" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B556" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B557" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B558" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B559" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B560" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B561" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B562" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B564" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B572" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B577" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B579" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B580" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B581" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B582" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B583" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B584" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B585" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B598" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B600" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B601" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B602" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B603" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B604" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B606" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B616" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B620" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B632" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B633" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B635" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B636" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B637" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B645" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B664" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B245" s="6" t="s">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B666" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="6" t="s">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B667" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B247" s="6" t="s">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B669" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I249" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I669" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
